--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200401.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200401.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809E768-3852-4FB7-98C8-B53E52EAB467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBCA804-D740-4600-94D3-29E55F8B0A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -633,20 +633,21 @@
   <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="10.26953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1796875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.6328125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -860,7 +861,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -928,7 +929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -996,7 +997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2164,7 +2165,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
